--- a/Finance/Godis.xlsx
+++ b/Finance/Godis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\Projects\MULTIPLE\VendingMachine\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6461A6-3915-40D7-ACF1-67A1A750AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC00DB0-D8CC-4D05-85AC-F968054CBE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5400" windowWidth="23280" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
